--- a/صيدليات دكتور مصطفي طلعت_2026-01-05_19-41.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-05_19-41.xlsx
@@ -254,7 +254,13 @@
     <t>L-CARNITINE PLUS 20 F.C. TAB</t>
   </si>
   <si>
+    <t>LEVOHISTAM 5 MG 30 F.C.TABS.</t>
+  </si>
+  <si>
     <t>LIMITLESS MAN MAX 30 TABS</t>
+  </si>
+  <si>
+    <t>LIPONA 20MG 10 F.C.TAB.</t>
   </si>
   <si>
     <t>MARCAL 30 TABLETS</t>
@@ -2667,17 +2673,17 @@
       <c r="F65" s="7"/>
       <c r="G65" s="7"/>
       <c t="s" r="H65" s="8">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="I65" s="8"/>
       <c r="J65" s="8"/>
       <c r="K65" s="8"/>
       <c r="L65" s="9">
-        <v>480</v>
+        <v>39</v>
       </c>
       <c r="M65" s="9"/>
       <c r="N65" s="10">
-        <v>2</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="66" ht="24.75" customHeight="1">
@@ -2693,17 +2699,17 @@
       <c r="F66" s="7"/>
       <c r="G66" s="7"/>
       <c t="s" r="H66" s="8">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="I66" s="8"/>
       <c r="J66" s="8"/>
       <c r="K66" s="8"/>
       <c r="L66" s="9">
-        <v>60</v>
+        <v>480</v>
       </c>
       <c r="M66" s="9"/>
       <c r="N66" s="10">
-        <v>0.67000000000000004</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -2711,7 +2717,7 @@
         <v>64</v>
       </c>
       <c t="s" r="B67" s="7">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C67" s="7"/>
       <c r="D67" s="7"/>
@@ -2725,7 +2731,7 @@
       <c r="J67" s="8"/>
       <c r="K67" s="8"/>
       <c r="L67" s="9">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="M67" s="9"/>
       <c r="N67" s="10">
@@ -2737,7 +2743,7 @@
         <v>65</v>
       </c>
       <c t="s" r="B68" s="7">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C68" s="7"/>
       <c r="D68" s="7"/>
@@ -2745,17 +2751,17 @@
       <c r="F68" s="7"/>
       <c r="G68" s="7"/>
       <c t="s" r="H68" s="8">
-        <v>21</v>
+        <v>85</v>
       </c>
       <c r="I68" s="8"/>
       <c r="J68" s="8"/>
       <c r="K68" s="8"/>
       <c r="L68" s="9">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="M68" s="9"/>
       <c r="N68" s="10">
-        <v>1</v>
+        <v>0.67000000000000004</v>
       </c>
     </row>
     <row r="69" ht="24.75" customHeight="1">
@@ -2777,7 +2783,7 @@
       <c r="J69" s="8"/>
       <c r="K69" s="8"/>
       <c r="L69" s="9">
-        <v>279</v>
+        <v>57</v>
       </c>
       <c r="M69" s="9"/>
       <c r="N69" s="10">
@@ -2797,13 +2803,13 @@
       <c r="F70" s="7"/>
       <c r="G70" s="7"/>
       <c t="s" r="H70" s="8">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="I70" s="8"/>
       <c r="J70" s="8"/>
       <c r="K70" s="8"/>
       <c r="L70" s="9">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="M70" s="9"/>
       <c r="N70" s="10">
@@ -2823,13 +2829,13 @@
       <c r="F71" s="7"/>
       <c r="G71" s="7"/>
       <c t="s" r="H71" s="8">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="I71" s="8"/>
       <c r="J71" s="8"/>
       <c r="K71" s="8"/>
       <c r="L71" s="9">
-        <v>136.5</v>
+        <v>279</v>
       </c>
       <c r="M71" s="9"/>
       <c r="N71" s="10">
@@ -2849,13 +2855,13 @@
       <c r="F72" s="7"/>
       <c r="G72" s="7"/>
       <c t="s" r="H72" s="8">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="I72" s="8"/>
       <c r="J72" s="8"/>
       <c r="K72" s="8"/>
       <c r="L72" s="9">
-        <v>380</v>
+        <v>67</v>
       </c>
       <c r="M72" s="9"/>
       <c r="N72" s="10">
@@ -2875,13 +2881,13 @@
       <c r="F73" s="7"/>
       <c r="G73" s="7"/>
       <c t="s" r="H73" s="8">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="I73" s="8"/>
       <c r="J73" s="8"/>
       <c r="K73" s="8"/>
       <c r="L73" s="9">
-        <v>20</v>
+        <v>136.5</v>
       </c>
       <c r="M73" s="9"/>
       <c r="N73" s="10">
@@ -2901,13 +2907,13 @@
       <c r="F74" s="7"/>
       <c r="G74" s="7"/>
       <c t="s" r="H74" s="8">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="I74" s="8"/>
       <c r="J74" s="8"/>
       <c r="K74" s="8"/>
       <c r="L74" s="9">
-        <v>67</v>
+        <v>380</v>
       </c>
       <c r="M74" s="9"/>
       <c r="N74" s="10">
@@ -2927,13 +2933,13 @@
       <c r="F75" s="7"/>
       <c r="G75" s="7"/>
       <c t="s" r="H75" s="8">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="I75" s="8"/>
       <c r="J75" s="8"/>
       <c r="K75" s="8"/>
       <c r="L75" s="9">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="M75" s="9"/>
       <c r="N75" s="10">
@@ -2959,7 +2965,7 @@
       <c r="J76" s="8"/>
       <c r="K76" s="8"/>
       <c r="L76" s="9">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="M76" s="9"/>
       <c r="N76" s="10">
@@ -2979,13 +2985,13 @@
       <c r="F77" s="7"/>
       <c r="G77" s="7"/>
       <c t="s" r="H77" s="8">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="I77" s="8"/>
       <c r="J77" s="8"/>
       <c r="K77" s="8"/>
       <c r="L77" s="9">
-        <v>80</v>
+        <v>31</v>
       </c>
       <c r="M77" s="9"/>
       <c r="N77" s="10">
@@ -3005,13 +3011,13 @@
       <c r="F78" s="7"/>
       <c r="G78" s="7"/>
       <c t="s" r="H78" s="8">
-        <v>83</v>
+        <v>11</v>
       </c>
       <c r="I78" s="8"/>
       <c r="J78" s="8"/>
       <c r="K78" s="8"/>
       <c r="L78" s="9">
-        <v>102</v>
+        <v>75</v>
       </c>
       <c r="M78" s="9"/>
       <c r="N78" s="10">
@@ -3031,17 +3037,17 @@
       <c r="F79" s="7"/>
       <c r="G79" s="7"/>
       <c t="s" r="H79" s="8">
-        <v>97</v>
+        <v>11</v>
       </c>
       <c r="I79" s="8"/>
       <c r="J79" s="8"/>
       <c r="K79" s="8"/>
       <c r="L79" s="9">
-        <v>21.620000000000001</v>
+        <v>80</v>
       </c>
       <c r="M79" s="9"/>
       <c r="N79" s="10">
-        <v>0.33000000000000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" ht="25.5" customHeight="1">
@@ -3049,7 +3055,7 @@
         <v>77</v>
       </c>
       <c t="s" r="B80" s="7">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C80" s="7"/>
       <c r="D80" s="7"/>
@@ -3057,13 +3063,13 @@
       <c r="F80" s="7"/>
       <c r="G80" s="7"/>
       <c t="s" r="H80" s="8">
-        <v>21</v>
+        <v>85</v>
       </c>
       <c r="I80" s="8"/>
       <c r="J80" s="8"/>
       <c r="K80" s="8"/>
       <c r="L80" s="9">
-        <v>75</v>
+        <v>102</v>
       </c>
       <c r="M80" s="9"/>
       <c r="N80" s="10">
@@ -3075,7 +3081,7 @@
         <v>78</v>
       </c>
       <c t="s" r="B81" s="7">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C81" s="7"/>
       <c r="D81" s="7"/>
@@ -3083,17 +3089,17 @@
       <c r="F81" s="7"/>
       <c r="G81" s="7"/>
       <c t="s" r="H81" s="8">
-        <v>11</v>
+        <v>99</v>
       </c>
       <c r="I81" s="8"/>
       <c r="J81" s="8"/>
       <c r="K81" s="8"/>
       <c r="L81" s="9">
-        <v>24</v>
+        <v>21.620000000000001</v>
       </c>
       <c r="M81" s="9"/>
       <c r="N81" s="10">
-        <v>1</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3109,17 +3115,17 @@
       <c r="F82" s="7"/>
       <c r="G82" s="7"/>
       <c t="s" r="H82" s="8">
-        <v>101</v>
+        <v>21</v>
       </c>
       <c r="I82" s="8"/>
       <c r="J82" s="8"/>
       <c r="K82" s="8"/>
       <c r="L82" s="9">
-        <v>141</v>
+        <v>75</v>
       </c>
       <c r="M82" s="9"/>
       <c r="N82" s="10">
-        <v>0.25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" ht="25.5" customHeight="1">
@@ -3127,7 +3133,7 @@
         <v>80</v>
       </c>
       <c t="s" r="B83" s="7">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C83" s="7"/>
       <c r="D83" s="7"/>
@@ -3135,13 +3141,13 @@
       <c r="F83" s="7"/>
       <c r="G83" s="7"/>
       <c t="s" r="H83" s="8">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="I83" s="8"/>
       <c r="J83" s="8"/>
       <c r="K83" s="8"/>
       <c r="L83" s="9">
-        <v>125</v>
+        <v>24</v>
       </c>
       <c r="M83" s="9"/>
       <c r="N83" s="10">
@@ -3153,7 +3159,7 @@
         <v>81</v>
       </c>
       <c t="s" r="B84" s="7">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C84" s="7"/>
       <c r="D84" s="7"/>
@@ -3161,17 +3167,17 @@
       <c r="F84" s="7"/>
       <c r="G84" s="7"/>
       <c t="s" r="H84" s="8">
-        <v>8</v>
+        <v>103</v>
       </c>
       <c r="I84" s="8"/>
       <c r="J84" s="8"/>
       <c r="K84" s="8"/>
       <c r="L84" s="9">
-        <v>18</v>
+        <v>141</v>
       </c>
       <c r="M84" s="9"/>
       <c r="N84" s="10">
-        <v>1</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="85" ht="25.5" customHeight="1">
@@ -3187,17 +3193,17 @@
       <c r="F85" s="7"/>
       <c r="G85" s="7"/>
       <c t="s" r="H85" s="8">
-        <v>105</v>
+        <v>21</v>
       </c>
       <c r="I85" s="8"/>
       <c r="J85" s="8"/>
       <c r="K85" s="8"/>
       <c r="L85" s="9">
-        <v>14.1</v>
+        <v>125</v>
       </c>
       <c r="M85" s="9"/>
       <c r="N85" s="10">
-        <v>0.10000000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" ht="24.75" customHeight="1">
@@ -3205,7 +3211,7 @@
         <v>83</v>
       </c>
       <c t="s" r="B86" s="7">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C86" s="7"/>
       <c r="D86" s="7"/>
@@ -3213,13 +3219,13 @@
       <c r="F86" s="7"/>
       <c r="G86" s="7"/>
       <c t="s" r="H86" s="8">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="I86" s="8"/>
       <c r="J86" s="8"/>
       <c r="K86" s="8"/>
       <c r="L86" s="9">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="M86" s="9"/>
       <c r="N86" s="10">
@@ -3231,7 +3237,7 @@
         <v>84</v>
       </c>
       <c t="s" r="B87" s="7">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C87" s="7"/>
       <c r="D87" s="7"/>
@@ -3239,17 +3245,17 @@
       <c r="F87" s="7"/>
       <c r="G87" s="7"/>
       <c t="s" r="H87" s="8">
-        <v>21</v>
+        <v>107</v>
       </c>
       <c r="I87" s="8"/>
       <c r="J87" s="8"/>
       <c r="K87" s="8"/>
       <c r="L87" s="9">
-        <v>33.600000000000001</v>
+        <v>14.1</v>
       </c>
       <c r="M87" s="9"/>
       <c r="N87" s="10">
-        <v>1</v>
+        <v>0.10000000000000001</v>
       </c>
     </row>
     <row r="88" ht="25.5" customHeight="1">
@@ -3271,7 +3277,7 @@
       <c r="J88" s="8"/>
       <c r="K88" s="8"/>
       <c r="L88" s="9">
-        <v>138</v>
+        <v>60</v>
       </c>
       <c r="M88" s="9"/>
       <c r="N88" s="10">
@@ -3291,13 +3297,13 @@
       <c r="F89" s="7"/>
       <c r="G89" s="7"/>
       <c t="s" r="H89" s="8">
-        <v>110</v>
+        <v>21</v>
       </c>
       <c r="I89" s="8"/>
       <c r="J89" s="8"/>
       <c r="K89" s="8"/>
       <c r="L89" s="9">
-        <v>39</v>
+        <v>33.600000000000001</v>
       </c>
       <c r="M89" s="9"/>
       <c r="N89" s="10">
@@ -3309,7 +3315,7 @@
         <v>87</v>
       </c>
       <c t="s" r="B90" s="7">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C90" s="7"/>
       <c r="D90" s="7"/>
@@ -3317,17 +3323,17 @@
       <c r="F90" s="7"/>
       <c r="G90" s="7"/>
       <c t="s" r="H90" s="8">
-        <v>112</v>
+        <v>21</v>
       </c>
       <c r="I90" s="8"/>
       <c r="J90" s="8"/>
       <c r="K90" s="8"/>
       <c r="L90" s="9">
-        <v>21</v>
+        <v>138</v>
       </c>
       <c r="M90" s="9"/>
       <c r="N90" s="10">
-        <v>0.33000000000000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" ht="24.75" customHeight="1">
@@ -3335,7 +3341,7 @@
         <v>88</v>
       </c>
       <c t="s" r="B91" s="7">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C91" s="7"/>
       <c r="D91" s="7"/>
@@ -3343,17 +3349,17 @@
       <c r="F91" s="7"/>
       <c r="G91" s="7"/>
       <c t="s" r="H91" s="8">
-        <v>18</v>
+        <v>112</v>
       </c>
       <c r="I91" s="8"/>
       <c r="J91" s="8"/>
       <c r="K91" s="8"/>
       <c r="L91" s="9">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="M91" s="9"/>
       <c r="N91" s="10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -3361,7 +3367,7 @@
         <v>89</v>
       </c>
       <c t="s" r="B92" s="7">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C92" s="7"/>
       <c r="D92" s="7"/>
@@ -3369,17 +3375,17 @@
       <c r="F92" s="7"/>
       <c r="G92" s="7"/>
       <c t="s" r="H92" s="8">
-        <v>8</v>
+        <v>114</v>
       </c>
       <c r="I92" s="8"/>
       <c r="J92" s="8"/>
       <c r="K92" s="8"/>
       <c r="L92" s="9">
-        <v>168</v>
+        <v>21</v>
       </c>
       <c r="M92" s="9"/>
       <c r="N92" s="10">
-        <v>2</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="93" ht="25.5" customHeight="1">
@@ -3395,17 +3401,17 @@
       <c r="F93" s="7"/>
       <c r="G93" s="7"/>
       <c t="s" r="H93" s="8">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="I93" s="8"/>
       <c r="J93" s="8"/>
       <c r="K93" s="8"/>
       <c r="L93" s="9">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="M93" s="9"/>
       <c r="N93" s="10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="94" ht="24.75" customHeight="1">
@@ -3421,17 +3427,17 @@
       <c r="F94" s="7"/>
       <c r="G94" s="7"/>
       <c t="s" r="H94" s="8">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="I94" s="8"/>
       <c r="J94" s="8"/>
       <c r="K94" s="8"/>
       <c r="L94" s="9">
-        <v>140</v>
+        <v>168</v>
       </c>
       <c r="M94" s="9"/>
       <c r="N94" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" ht="25.5" customHeight="1">
@@ -3447,17 +3453,17 @@
       <c r="F95" s="7"/>
       <c r="G95" s="7"/>
       <c t="s" r="H95" s="8">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="I95" s="8"/>
       <c r="J95" s="8"/>
       <c r="K95" s="8"/>
       <c r="L95" s="9">
-        <v>273</v>
+        <v>28</v>
       </c>
       <c r="M95" s="9"/>
       <c r="N95" s="10">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" ht="24.75" customHeight="1">
@@ -3473,13 +3479,13 @@
       <c r="F96" s="7"/>
       <c r="G96" s="7"/>
       <c t="s" r="H96" s="8">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="I96" s="8"/>
       <c r="J96" s="8"/>
       <c r="K96" s="8"/>
       <c r="L96" s="9">
-        <v>60</v>
+        <v>140</v>
       </c>
       <c r="M96" s="9"/>
       <c r="N96" s="10">
@@ -3499,17 +3505,17 @@
       <c r="F97" s="7"/>
       <c r="G97" s="7"/>
       <c t="s" r="H97" s="8">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="I97" s="8"/>
       <c r="J97" s="8"/>
       <c r="K97" s="8"/>
       <c r="L97" s="9">
-        <v>234</v>
+        <v>273</v>
       </c>
       <c r="M97" s="9"/>
       <c r="N97" s="10">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="98" ht="25.5" customHeight="1">
@@ -3525,17 +3531,17 @@
       <c r="F98" s="7"/>
       <c r="G98" s="7"/>
       <c t="s" r="H98" s="8">
-        <v>69</v>
+        <v>21</v>
       </c>
       <c r="I98" s="8"/>
       <c r="J98" s="8"/>
       <c r="K98" s="8"/>
       <c r="L98" s="9">
-        <v>144</v>
+        <v>60</v>
       </c>
       <c r="M98" s="9"/>
       <c r="N98" s="10">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" ht="24.75" customHeight="1">
@@ -3557,7 +3563,7 @@
       <c r="J99" s="8"/>
       <c r="K99" s="8"/>
       <c r="L99" s="9">
-        <v>200</v>
+        <v>234</v>
       </c>
       <c r="M99" s="9"/>
       <c r="N99" s="10">
@@ -3577,17 +3583,17 @@
       <c r="F100" s="7"/>
       <c r="G100" s="7"/>
       <c t="s" r="H100" s="8">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="I100" s="8"/>
       <c r="J100" s="8"/>
       <c r="K100" s="8"/>
       <c r="L100" s="9">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="M100" s="9"/>
       <c r="N100" s="10">
-        <v>0.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="101" ht="24.75" customHeight="1">
@@ -3609,7 +3615,7 @@
       <c r="J101" s="8"/>
       <c r="K101" s="8"/>
       <c r="L101" s="9">
-        <v>95</v>
+        <v>200</v>
       </c>
       <c r="M101" s="9"/>
       <c r="N101" s="10">
@@ -3629,17 +3635,17 @@
       <c r="F102" s="7"/>
       <c r="G102" s="7"/>
       <c t="s" r="H102" s="8">
-        <v>21</v>
+        <v>85</v>
       </c>
       <c r="I102" s="8"/>
       <c r="J102" s="8"/>
       <c r="K102" s="8"/>
       <c r="L102" s="9">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="M102" s="9"/>
       <c r="N102" s="10">
-        <v>2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="103" ht="25.5" customHeight="1">
@@ -3655,17 +3661,17 @@
       <c r="F103" s="7"/>
       <c r="G103" s="7"/>
       <c t="s" r="H103" s="8">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="I103" s="8"/>
       <c r="J103" s="8"/>
       <c r="K103" s="8"/>
       <c r="L103" s="9">
-        <v>18</v>
+        <v>95</v>
       </c>
       <c r="M103" s="9"/>
       <c r="N103" s="10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" ht="24.75" customHeight="1">
@@ -3681,17 +3687,17 @@
       <c r="F104" s="7"/>
       <c r="G104" s="7"/>
       <c t="s" r="H104" s="8">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="I104" s="8"/>
       <c r="J104" s="8"/>
       <c r="K104" s="8"/>
       <c r="L104" s="9">
-        <v>175</v>
+        <v>76</v>
       </c>
       <c r="M104" s="9"/>
       <c r="N104" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" ht="25.5" customHeight="1">
@@ -3707,17 +3713,17 @@
       <c r="F105" s="7"/>
       <c r="G105" s="7"/>
       <c t="s" r="H105" s="8">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="I105" s="8"/>
       <c r="J105" s="8"/>
       <c r="K105" s="8"/>
       <c r="L105" s="9">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="M105" s="9"/>
       <c r="N105" s="10">
-        <v>0.33000000000000002</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="106" ht="24.75" customHeight="1">
@@ -3733,17 +3739,17 @@
       <c r="F106" s="7"/>
       <c r="G106" s="7"/>
       <c t="s" r="H106" s="8">
-        <v>129</v>
+        <v>8</v>
       </c>
       <c r="I106" s="8"/>
       <c r="J106" s="8"/>
       <c r="K106" s="8"/>
       <c r="L106" s="9">
-        <v>17</v>
+        <v>175</v>
       </c>
       <c r="M106" s="9"/>
       <c r="N106" s="10">
-        <v>0.33000000000000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -3751,7 +3757,7 @@
         <v>104</v>
       </c>
       <c t="s" r="B107" s="7">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C107" s="7"/>
       <c r="D107" s="7"/>
@@ -3759,17 +3765,17 @@
       <c r="F107" s="7"/>
       <c r="G107" s="7"/>
       <c t="s" r="H107" s="8">
-        <v>131</v>
+        <v>85</v>
       </c>
       <c r="I107" s="8"/>
       <c r="J107" s="8"/>
       <c r="K107" s="8"/>
       <c r="L107" s="9">
-        <v>27.280000000000001</v>
+        <v>0</v>
       </c>
       <c r="M107" s="9"/>
       <c r="N107" s="10">
-        <v>11</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="108" ht="25.5" customHeight="1">
@@ -3777,7 +3783,7 @@
         <v>105</v>
       </c>
       <c t="s" r="B108" s="7">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C108" s="7"/>
       <c r="D108" s="7"/>
@@ -3785,17 +3791,17 @@
       <c r="F108" s="7"/>
       <c r="G108" s="7"/>
       <c t="s" r="H108" s="8">
-        <v>11</v>
+        <v>131</v>
       </c>
       <c r="I108" s="8"/>
       <c r="J108" s="8"/>
       <c r="K108" s="8"/>
       <c r="L108" s="9">
-        <v>63</v>
+        <v>17</v>
       </c>
       <c r="M108" s="9"/>
       <c r="N108" s="10">
-        <v>1</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="109" ht="24.75" customHeight="1">
@@ -3803,7 +3809,7 @@
         <v>106</v>
       </c>
       <c t="s" r="B109" s="7">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C109" s="7"/>
       <c r="D109" s="7"/>
@@ -3811,17 +3817,17 @@
       <c r="F109" s="7"/>
       <c r="G109" s="7"/>
       <c t="s" r="H109" s="8">
-        <v>21</v>
+        <v>133</v>
       </c>
       <c r="I109" s="8"/>
       <c r="J109" s="8"/>
       <c r="K109" s="8"/>
       <c r="L109" s="9">
-        <v>245</v>
+        <v>27.280000000000001</v>
       </c>
       <c r="M109" s="9"/>
       <c r="N109" s="10">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="110" ht="25.5" customHeight="1">
@@ -3843,7 +3849,7 @@
       <c r="J110" s="8"/>
       <c r="K110" s="8"/>
       <c r="L110" s="9">
-        <v>120</v>
+        <v>63</v>
       </c>
       <c r="M110" s="9"/>
       <c r="N110" s="10">
@@ -3863,13 +3869,13 @@
       <c r="F111" s="7"/>
       <c r="G111" s="7"/>
       <c t="s" r="H111" s="8">
-        <v>136</v>
+        <v>21</v>
       </c>
       <c r="I111" s="8"/>
       <c r="J111" s="8"/>
       <c r="K111" s="8"/>
       <c r="L111" s="9">
-        <v>23.5</v>
+        <v>245</v>
       </c>
       <c r="M111" s="9"/>
       <c r="N111" s="10">
@@ -3881,7 +3887,7 @@
         <v>109</v>
       </c>
       <c t="s" r="B112" s="7">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C112" s="7"/>
       <c r="D112" s="7"/>
@@ -3889,13 +3895,13 @@
       <c r="F112" s="7"/>
       <c r="G112" s="7"/>
       <c t="s" r="H112" s="8">
-        <v>138</v>
+        <v>11</v>
       </c>
       <c r="I112" s="8"/>
       <c r="J112" s="8"/>
       <c r="K112" s="8"/>
       <c r="L112" s="9">
-        <v>15</v>
+        <v>120</v>
       </c>
       <c r="M112" s="9"/>
       <c r="N112" s="10">
@@ -3907,7 +3913,7 @@
         <v>110</v>
       </c>
       <c t="s" r="B113" s="7">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C113" s="7"/>
       <c r="D113" s="7"/>
@@ -3915,13 +3921,13 @@
       <c r="F113" s="7"/>
       <c r="G113" s="7"/>
       <c t="s" r="H113" s="8">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="I113" s="8"/>
       <c r="J113" s="8"/>
       <c r="K113" s="8"/>
       <c r="L113" s="9">
-        <v>50</v>
+        <v>23.5</v>
       </c>
       <c r="M113" s="9"/>
       <c r="N113" s="10">
@@ -3933,7 +3939,7 @@
         <v>111</v>
       </c>
       <c t="s" r="B114" s="7">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C114" s="7"/>
       <c r="D114" s="7"/>
@@ -3941,13 +3947,13 @@
       <c r="F114" s="7"/>
       <c r="G114" s="7"/>
       <c t="s" r="H114" s="8">
-        <v>8</v>
+        <v>140</v>
       </c>
       <c r="I114" s="8"/>
       <c r="J114" s="8"/>
       <c r="K114" s="8"/>
       <c r="L114" s="9">
-        <v>120</v>
+        <v>15</v>
       </c>
       <c r="M114" s="9"/>
       <c r="N114" s="10">
@@ -3959,7 +3965,7 @@
         <v>112</v>
       </c>
       <c t="s" r="B115" s="7">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C115" s="7"/>
       <c r="D115" s="7"/>
@@ -3967,17 +3973,17 @@
       <c r="F115" s="7"/>
       <c r="G115" s="7"/>
       <c t="s" r="H115" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I115" s="8"/>
       <c r="J115" s="8"/>
       <c r="K115" s="8"/>
       <c r="L115" s="9">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="M115" s="9"/>
       <c r="N115" s="10">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116" ht="24.75" customHeight="1">
@@ -3985,7 +3991,7 @@
         <v>113</v>
       </c>
       <c t="s" r="B116" s="7">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C116" s="7"/>
       <c r="D116" s="7"/>
@@ -3993,17 +3999,17 @@
       <c r="F116" s="7"/>
       <c r="G116" s="7"/>
       <c t="s" r="H116" s="8">
-        <v>145</v>
+        <v>8</v>
       </c>
       <c r="I116" s="8"/>
       <c r="J116" s="8"/>
       <c r="K116" s="8"/>
       <c r="L116" s="9">
-        <v>14</v>
+        <v>120</v>
       </c>
       <c r="M116" s="9"/>
       <c r="N116" s="10">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -4011,7 +4017,7 @@
         <v>114</v>
       </c>
       <c t="s" r="B117" s="7">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C117" s="7"/>
       <c r="D117" s="7"/>
@@ -4025,11 +4031,11 @@
       <c r="J117" s="8"/>
       <c r="K117" s="8"/>
       <c r="L117" s="9">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="M117" s="9"/>
       <c r="N117" s="10">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="118" ht="25.5" customHeight="1">
@@ -4037,7 +4043,7 @@
         <v>115</v>
       </c>
       <c t="s" r="B118" s="7">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C118" s="7"/>
       <c r="D118" s="7"/>
@@ -4045,17 +4051,17 @@
       <c r="F118" s="7"/>
       <c r="G118" s="7"/>
       <c t="s" r="H118" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I118" s="8"/>
       <c r="J118" s="8"/>
       <c r="K118" s="8"/>
       <c r="L118" s="9">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="M118" s="9"/>
       <c r="N118" s="10">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="119" ht="24.75" customHeight="1">
@@ -4063,7 +4069,7 @@
         <v>116</v>
       </c>
       <c t="s" r="B119" s="7">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C119" s="7"/>
       <c r="D119" s="7"/>
@@ -4071,17 +4077,17 @@
       <c r="F119" s="7"/>
       <c r="G119" s="7"/>
       <c t="s" r="H119" s="8">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="I119" s="8"/>
       <c r="J119" s="8"/>
       <c r="K119" s="8"/>
       <c r="L119" s="9">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="M119" s="9"/>
       <c r="N119" s="10">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="120" ht="25.5" customHeight="1">
@@ -4089,7 +4095,7 @@
         <v>117</v>
       </c>
       <c t="s" r="B120" s="7">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C120" s="7"/>
       <c r="D120" s="7"/>
@@ -4097,13 +4103,13 @@
       <c r="F120" s="7"/>
       <c r="G120" s="7"/>
       <c t="s" r="H120" s="8">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="I120" s="8"/>
       <c r="J120" s="8"/>
       <c r="K120" s="8"/>
       <c r="L120" s="9">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="M120" s="9"/>
       <c r="N120" s="10">
@@ -4115,7 +4121,7 @@
         <v>118</v>
       </c>
       <c t="s" r="B121" s="7">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C121" s="7"/>
       <c r="D121" s="7"/>
@@ -4123,13 +4129,13 @@
       <c r="F121" s="7"/>
       <c r="G121" s="7"/>
       <c t="s" r="H121" s="8">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="I121" s="8"/>
       <c r="J121" s="8"/>
       <c r="K121" s="8"/>
       <c r="L121" s="9">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="M121" s="9"/>
       <c r="N121" s="10">
@@ -4141,7 +4147,7 @@
         <v>119</v>
       </c>
       <c t="s" r="B122" s="7">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C122" s="7"/>
       <c r="D122" s="7"/>
@@ -4149,13 +4155,13 @@
       <c r="F122" s="7"/>
       <c r="G122" s="7"/>
       <c t="s" r="H122" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I122" s="8"/>
       <c r="J122" s="8"/>
       <c r="K122" s="8"/>
       <c r="L122" s="9">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="M122" s="9"/>
       <c r="N122" s="10">
@@ -4167,7 +4173,7 @@
         <v>120</v>
       </c>
       <c t="s" r="B123" s="7">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C123" s="7"/>
       <c r="D123" s="7"/>
@@ -4175,13 +4181,13 @@
       <c r="F123" s="7"/>
       <c r="G123" s="7"/>
       <c t="s" r="H123" s="8">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="I123" s="8"/>
       <c r="J123" s="8"/>
       <c r="K123" s="8"/>
       <c r="L123" s="9">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="M123" s="9"/>
       <c r="N123" s="10">
@@ -4193,7 +4199,7 @@
         <v>121</v>
       </c>
       <c t="s" r="B124" s="7">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C124" s="7"/>
       <c r="D124" s="7"/>
@@ -4201,13 +4207,13 @@
       <c r="F124" s="7"/>
       <c r="G124" s="7"/>
       <c t="s" r="H124" s="8">
-        <v>138</v>
+        <v>157</v>
       </c>
       <c r="I124" s="8"/>
       <c r="J124" s="8"/>
       <c r="K124" s="8"/>
       <c r="L124" s="9">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="M124" s="9"/>
       <c r="N124" s="10">
@@ -4227,51 +4233,103 @@
       <c r="F125" s="7"/>
       <c r="G125" s="7"/>
       <c t="s" r="H125" s="8">
-        <v>11</v>
+        <v>140</v>
       </c>
       <c r="I125" s="8"/>
       <c r="J125" s="8"/>
       <c r="K125" s="8"/>
       <c r="L125" s="9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="M125" s="9"/>
       <c r="N125" s="10">
         <v>1</v>
       </c>
     </row>
-    <row r="126" ht="25.5" customHeight="1">
-      <c r="K126" s="11">
-        <v>11384.049999999999</v>
-      </c>
-      <c r="L126" s="11"/>
-      <c r="M126" s="11"/>
-      <c r="N126" s="11"/>
-    </row>
-    <row r="127" ht="16.5" customHeight="1">
-      <c t="s" r="A127" s="12">
+    <row r="126" ht="24.75" customHeight="1">
+      <c r="A126" s="6">
+        <v>123</v>
+      </c>
+      <c t="s" r="B126" s="7">
         <v>159</v>
       </c>
-      <c r="B127" s="12"/>
-      <c r="C127" s="12"/>
-      <c r="D127" s="12"/>
-      <c r="E127" s="12"/>
-      <c t="s" r="F127" s="13">
+      <c r="C126" s="7"/>
+      <c r="D126" s="7"/>
+      <c r="E126" s="7"/>
+      <c r="F126" s="7"/>
+      <c r="G126" s="7"/>
+      <c t="s" r="H126" s="8">
+        <v>140</v>
+      </c>
+      <c r="I126" s="8"/>
+      <c r="J126" s="8"/>
+      <c r="K126" s="8"/>
+      <c r="L126" s="9">
+        <v>20</v>
+      </c>
+      <c r="M126" s="9"/>
+      <c r="N126" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" ht="25.5" customHeight="1">
+      <c r="A127" s="6">
+        <v>124</v>
+      </c>
+      <c t="s" r="B127" s="7">
         <v>160</v>
       </c>
-      <c r="G127" s="13"/>
-      <c r="H127" s="14"/>
-      <c t="s" r="I127" s="15">
+      <c r="C127" s="7"/>
+      <c r="D127" s="7"/>
+      <c r="E127" s="7"/>
+      <c r="F127" s="7"/>
+      <c r="G127" s="7"/>
+      <c t="s" r="H127" s="8">
+        <v>11</v>
+      </c>
+      <c r="I127" s="8"/>
+      <c r="J127" s="8"/>
+      <c r="K127" s="8"/>
+      <c r="L127" s="9">
+        <v>300</v>
+      </c>
+      <c r="M127" s="9"/>
+      <c r="N127" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" ht="25.5" customHeight="1">
+      <c r="K128" s="11">
+        <v>11464.049999999999</v>
+      </c>
+      <c r="L128" s="11"/>
+      <c r="M128" s="11"/>
+      <c r="N128" s="11"/>
+    </row>
+    <row r="129" ht="17.25" customHeight="1">
+      <c t="s" r="A129" s="12">
         <v>161</v>
       </c>
-      <c r="J127" s="15"/>
-      <c r="K127" s="15"/>
-      <c r="L127" s="15"/>
-      <c r="M127" s="15"/>
-      <c r="N127" s="15"/>
+      <c r="B129" s="12"/>
+      <c r="C129" s="12"/>
+      <c r="D129" s="12"/>
+      <c r="E129" s="12"/>
+      <c t="s" r="F129" s="13">
+        <v>162</v>
+      </c>
+      <c r="G129" s="13"/>
+      <c r="H129" s="14"/>
+      <c t="s" r="I129" s="15">
+        <v>163</v>
+      </c>
+      <c r="J129" s="15"/>
+      <c r="K129" s="15"/>
+      <c r="L129" s="15"/>
+      <c r="M129" s="15"/>
+      <c r="N129" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="377">
+  <mergeCells count="383">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -4645,10 +4703,16 @@
     <mergeCell ref="B125:G125"/>
     <mergeCell ref="H125:K125"/>
     <mergeCell ref="L125:M125"/>
-    <mergeCell ref="K126:N126"/>
-    <mergeCell ref="A127:E127"/>
-    <mergeCell ref="F127:G127"/>
-    <mergeCell ref="I127:N127"/>
+    <mergeCell ref="B126:G126"/>
+    <mergeCell ref="H126:K126"/>
+    <mergeCell ref="L126:M126"/>
+    <mergeCell ref="B127:G127"/>
+    <mergeCell ref="H127:K127"/>
+    <mergeCell ref="L127:M127"/>
+    <mergeCell ref="K128:N128"/>
+    <mergeCell ref="A129:E129"/>
+    <mergeCell ref="F129:G129"/>
+    <mergeCell ref="I129:N129"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
